--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H2">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I2">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J2">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N2">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q2">
-        <v>295.4604144340148</v>
+        <v>15.37022755449811</v>
       </c>
       <c r="R2">
-        <v>295.4604144340148</v>
+        <v>138.332047990483</v>
       </c>
       <c r="S2">
-        <v>0.3123953354446122</v>
+        <v>0.01437493760179237</v>
       </c>
       <c r="T2">
-        <v>0.3123953354446122</v>
+        <v>0.01437493760179237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H3">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I3">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J3">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q3">
-        <v>319.7695942794997</v>
+        <v>16.46787184943222</v>
       </c>
       <c r="R3">
-        <v>319.7695942794997</v>
+        <v>148.21084664489</v>
       </c>
       <c r="S3">
-        <v>0.338097845903622</v>
+        <v>0.01540150459259945</v>
       </c>
       <c r="T3">
-        <v>0.338097845903622</v>
+        <v>0.01540150459259946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H4">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I4">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J4">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N4">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q4">
-        <v>112.0311694730368</v>
+        <v>6.362919041507111</v>
       </c>
       <c r="R4">
-        <v>112.0311694730368</v>
+        <v>57.266271373564</v>
       </c>
       <c r="S4">
-        <v>0.1184524662460245</v>
+        <v>0.005950891999653803</v>
       </c>
       <c r="T4">
-        <v>0.1184524662460245</v>
+        <v>0.005950891999653805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H5">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I5">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J5">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N5">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O5">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P5">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q5">
-        <v>139.0287580333197</v>
+        <v>7.474879440318889</v>
       </c>
       <c r="R5">
-        <v>139.0287580333197</v>
+        <v>67.27391496286999</v>
       </c>
       <c r="S5">
-        <v>0.1469974770916947</v>
+        <v>0.006990848063538207</v>
       </c>
       <c r="T5">
-        <v>0.1469974770916947</v>
+        <v>0.006990848063538209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.627939028810661</v>
+        <v>6.870075</v>
       </c>
       <c r="H6">
-        <v>0.627939028810661</v>
+        <v>20.610225</v>
       </c>
       <c r="I6">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="J6">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N6">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O6">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P6">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q6">
-        <v>27.1146521513896</v>
+        <v>300.193077391225</v>
       </c>
       <c r="R6">
-        <v>27.1146521513896</v>
+        <v>2701.737696521025</v>
       </c>
       <c r="S6">
-        <v>0.02866878417714074</v>
+        <v>0.2807542530316035</v>
       </c>
       <c r="T6">
-        <v>0.02866878417714074</v>
+        <v>0.2807542530316036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.627939028810661</v>
+        <v>6.870075</v>
       </c>
       <c r="H7">
-        <v>0.627939028810661</v>
+        <v>20.610225</v>
       </c>
       <c r="I7">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="J7">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P7">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q7">
-        <v>29.34552614802476</v>
+        <v>321.63096551675</v>
       </c>
       <c r="R7">
-        <v>29.34552614802476</v>
+        <v>2894.67868965075</v>
       </c>
       <c r="S7">
-        <v>0.03102752530274471</v>
+        <v>0.3008039434493906</v>
       </c>
       <c r="T7">
-        <v>0.03102752530274471</v>
+        <v>0.3008039434493907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.627939028810661</v>
+        <v>6.870075</v>
       </c>
       <c r="H8">
-        <v>0.627939028810661</v>
+        <v>20.610225</v>
       </c>
       <c r="I8">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="J8">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N8">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O8">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P8">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q8">
-        <v>10.28119518546596</v>
+        <v>124.2729973573</v>
       </c>
       <c r="R8">
-        <v>10.28119518546596</v>
+        <v>1118.4569762157</v>
       </c>
       <c r="S8">
-        <v>0.0108704830218549</v>
+        <v>0.1162257732531812</v>
       </c>
       <c r="T8">
-        <v>0.0108704830218549</v>
+        <v>0.1162257732531813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.870075</v>
+      </c>
+      <c r="H9">
+        <v>20.610225</v>
+      </c>
+      <c r="I9">
+        <v>0.8343209329201149</v>
+      </c>
+      <c r="J9">
+        <v>0.8343209329201149</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>21.25020333333334</v>
+      </c>
+      <c r="N9">
+        <v>63.75061</v>
+      </c>
+      <c r="O9">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="P9">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="Q9">
+        <v>145.99049066525</v>
+      </c>
+      <c r="R9">
+        <v>1313.91441598725</v>
+      </c>
+      <c r="S9">
+        <v>0.1365369631859394</v>
+      </c>
+      <c r="T9">
+        <v>0.1365369631859395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.207314</v>
+      </c>
+      <c r="I10">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J10">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>43.69574966666666</v>
+      </c>
+      <c r="N10">
+        <v>131.087249</v>
+      </c>
+      <c r="O10">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="P10">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="Q10">
+        <v>32.15007999324289</v>
+      </c>
+      <c r="R10">
+        <v>289.350719939186</v>
+      </c>
+      <c r="S10">
+        <v>0.03006822066601413</v>
+      </c>
+      <c r="T10">
+        <v>0.03006822066601413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.207314</v>
+      </c>
+      <c r="I11">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J11">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.81622333333333</v>
+      </c>
+      <c r="N11">
+        <v>140.44867</v>
+      </c>
+      <c r="O11">
+        <v>0.3605374521727266</v>
+      </c>
+      <c r="P11">
+        <v>0.3605374521727267</v>
+      </c>
+      <c r="Q11">
+        <v>34.44603506359778</v>
+      </c>
+      <c r="R11">
+        <v>310.01431557238</v>
+      </c>
+      <c r="S11">
+        <v>0.03221550252998442</v>
+      </c>
+      <c r="T11">
+        <v>0.03221550252998443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.207314</v>
+      </c>
+      <c r="I12">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J12">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.08903066666667</v>
+      </c>
+      <c r="N12">
+        <v>54.26709200000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="P12">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="Q12">
+        <v>13.30939021232089</v>
+      </c>
+      <c r="R12">
+        <v>119.784511910888</v>
+      </c>
+      <c r="S12">
+        <v>0.01244754855721238</v>
+      </c>
+      <c r="T12">
+        <v>0.01244754855721238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.207314</v>
+      </c>
+      <c r="I13">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J13">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.25020333333334</v>
+      </c>
+      <c r="N13">
+        <v>63.75061</v>
+      </c>
+      <c r="O13">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="P13">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="Q13">
+        <v>15.63529044017112</v>
+      </c>
+      <c r="R13">
+        <v>140.71761396154</v>
+      </c>
+      <c r="S13">
+        <v>0.01462283649779703</v>
+      </c>
+      <c r="T13">
+        <v>0.01462283649779703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.627939028810661</v>
-      </c>
-      <c r="H9">
-        <v>0.627939028810661</v>
-      </c>
-      <c r="I9">
-        <v>0.08405687531404654</v>
-      </c>
-      <c r="J9">
-        <v>0.08405687531404654</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>20.3185120505201</v>
-      </c>
-      <c r="N9">
-        <v>20.3185120505201</v>
-      </c>
-      <c r="O9">
-        <v>0.1604875599040009</v>
-      </c>
-      <c r="P9">
-        <v>0.1604875599040009</v>
-      </c>
-      <c r="Q9">
-        <v>12.7587867238813</v>
-      </c>
-      <c r="R9">
-        <v>12.7587867238813</v>
-      </c>
-      <c r="S9">
-        <v>0.01349008281230618</v>
-      </c>
-      <c r="T9">
-        <v>0.01349008281230618</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.830188</v>
+      </c>
+      <c r="I14">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J14">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.69574966666666</v>
+      </c>
+      <c r="N14">
+        <v>131.087249</v>
+      </c>
+      <c r="O14">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="P14">
+        <v>0.3365063034544351</v>
+      </c>
+      <c r="Q14">
+        <v>12.09189567475689</v>
+      </c>
+      <c r="R14">
+        <v>108.827061072812</v>
+      </c>
+      <c r="S14">
+        <v>0.01130889215502504</v>
+      </c>
+      <c r="T14">
+        <v>0.01130889215502504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.830188</v>
+      </c>
+      <c r="I15">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J15">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.81622333333333</v>
+      </c>
+      <c r="N15">
+        <v>140.44867</v>
+      </c>
+      <c r="O15">
+        <v>0.3605374521727266</v>
+      </c>
+      <c r="P15">
+        <v>0.3605374521727267</v>
+      </c>
+      <c r="Q15">
+        <v>12.95542227221778</v>
+      </c>
+      <c r="R15">
+        <v>116.59880044996</v>
+      </c>
+      <c r="S15">
+        <v>0.01211650160075218</v>
+      </c>
+      <c r="T15">
+        <v>0.01211650160075219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.830188</v>
+      </c>
+      <c r="I16">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J16">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.08903066666667</v>
+      </c>
+      <c r="N16">
+        <v>54.26709200000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="P16">
+        <v>0.1393058338430899</v>
+      </c>
+      <c r="Q16">
+        <v>5.005765397032889</v>
+      </c>
+      <c r="R16">
+        <v>45.051888573296</v>
+      </c>
+      <c r="S16">
+        <v>0.004681620033042436</v>
+      </c>
+      <c r="T16">
+        <v>0.004681620033042437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.830188</v>
+      </c>
+      <c r="I17">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J17">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.25020333333334</v>
+      </c>
+      <c r="N17">
+        <v>63.75061</v>
+      </c>
+      <c r="O17">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="P17">
+        <v>0.1636504105297484</v>
+      </c>
+      <c r="Q17">
+        <v>5.880554601631111</v>
+      </c>
+      <c r="R17">
+        <v>52.92499141468</v>
+      </c>
+      <c r="S17">
+        <v>0.005499762782473685</v>
+      </c>
+      <c r="T17">
+        <v>0.005499762782473686</v>
       </c>
     </row>
   </sheetData>
